--- a/medicine/Mort/Cimetière_du_choléra_de_Maria_Dreieichen/Cimetière_du_choléra_de_Maria_Dreieichen.xlsx
+++ b/medicine/Mort/Cimetière_du_choléra_de_Maria_Dreieichen/Cimetière_du_choléra_de_Maria_Dreieichen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_chol%C3%A9ra_de_Maria_Dreieichen</t>
+          <t>Cimetière_du_choléra_de_Maria_Dreieichen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du choléra de Maria Dreieichen (allemand : Cholerafriedhof Maria Dreieichen) est un cimetière du choléra  aménagé en 1866 près de la localité de Maria Dreieichen (de) dans la commune de Rosenburg-Mold en Basse-Autriche. Le cimetière est classé monument historique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_chol%C3%A9ra_de_Maria_Dreieichen</t>
+          <t>Cimetière_du_choléra_de_Maria_Dreieichen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la guerre austro-prussienne de 1866, le choléra s'est déclaré dans l'armée prussienne. Avec l'avancée des troupes, le choléra s'est également propagé dans les parties de la Basse-Autriche. Lors de leur passage, les soldats se sont également installés dans les environs de Horn. Le soldat prussien Gustav Maverspörg fut le premier à succomber au choléra, le 4 août 1866, mais il fut enterré dans le cimetière paroissial de Maria Dreieichen.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_chol%C3%A9ra_de_Maria_Dreieichen</t>
+          <t>Cimetière_du_choléra_de_Maria_Dreieichen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Le cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière se trouve à l'est de Maria Dreieichen et n'est accessible qu'à pied. Il se pourrait qu'un four à briques se soit trouvé à proximité immédiate, car les registres de la paroisse de Maria Dreieichen mentionnent le "cimetière du choléra près du four à briques ou Ziegelstadel" comme lieu d'inhumation. Sur cette petite surface se trouvent plusieurs tombes avec des croix forgées, seule une pierre tombale en granit se trouve à l'arrière. Une pierre commémorative se trouve au centre du cimetière. Toutes les personnes inhumées sont mortes en 1866 et ont été enterrées au cimetière du choléra entre le 8 août 1866 et le 15 octobre 1866 ; il s'agit de 22 personnes de Mold, 13 de Mörtersdorf et 4 de Zaingrub. Depuis cette époque, le cimetière est entretenu et fleuri par des catholiques.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_chol%C3%A9ra_de_Maria_Dreieichen</t>
+          <t>Cimetière_du_choléra_de_Maria_Dreieichen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Environs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Environs
 Entre Horn et Breiteneich se trouve le cimetière prussien de Breiteneich (de), où sont enterrés d'autres soldats prussiens.
